--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3152.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3152.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.12389246736882</v>
+        <v>1.026244282722473</v>
       </c>
       <c r="B1">
-        <v>2.087099840086079</v>
+        <v>1.694387316703796</v>
       </c>
       <c r="C1">
-        <v>2.854436331025489</v>
+        <v>4.407351016998291</v>
       </c>
       <c r="D1">
-        <v>3.271761112908852</v>
+        <v>2.441533327102661</v>
       </c>
       <c r="E1">
-        <v>4.076297573656593</v>
+        <v>1.339480519294739</v>
       </c>
     </row>
   </sheetData>
